--- a/受控文档/软件需求工程/3项目执行/PRD2018-G14-QFD打分/PRD2018-G14-QFD-游客(已收集).xlsx
+++ b/受控文档/软件需求工程/3项目执行/PRD2018-G14-QFD打分/PRD2018-G14-QFD-游客(已收集).xlsx
@@ -4,20 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文档标识" sheetId="3" r:id="rId1"/>
     <sheet name="文档使用指南" sheetId="1" r:id="rId2"/>
     <sheet name="手机端打分表" sheetId="2" r:id="rId3"/>
     <sheet name="Web端打分表" sheetId="4" r:id="rId4"/>
+    <sheet name="手机端优先级排序" sheetId="5" r:id="rId5"/>
+    <sheet name="web端打分" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">web端打分!$C$5:$M$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">手机端优先级排序!$C$6:$M$14</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
   <si>
     <t>文档使用指南：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,6 +758,72 @@
   <si>
     <t>庄毓勋</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对收益</t>
+  </si>
+  <si>
+    <t>相对损失</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>成本%</t>
+  </si>
+  <si>
+    <t>风险</t>
+  </si>
+  <si>
+    <t>风险%</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>价值%</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>1、登录</t>
+  </si>
+  <si>
+    <t>2、注册</t>
+  </si>
+  <si>
+    <t>3、浏览LOGO</t>
+  </si>
+  <si>
+    <t>3、访问下载app二维码</t>
+  </si>
+  <si>
+    <t>4、浏览LOGO</t>
+  </si>
+  <si>
+    <t>5、浏览轮播图</t>
+  </si>
+  <si>
+    <t>6、浏览系统公告</t>
+  </si>
+  <si>
+    <t>7、浏览论坛精华</t>
+  </si>
+  <si>
+    <t>8、浏览教师风采</t>
+  </si>
+  <si>
+    <t>9、浏览推荐课程</t>
+  </si>
+  <si>
+    <t>10、浏览版权信息</t>
+  </si>
+  <si>
+    <t>11、访问友情链接</t>
   </si>
 </sst>
 </file>
@@ -1155,6 +1227,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1179,42 +1281,96 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,24 +1386,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1257,71 +1395,32 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,33 +1441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1728,407 +1800,402 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="15" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="15" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="15" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16">
+      <c r="G29" s="25"/>
+      <c r="H29" s="26">
         <v>43470</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:M19"/>
-    <mergeCell ref="C20:M22"/>
-    <mergeCell ref="C23:M25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F26:G26"/>
@@ -2139,6 +2206,11 @@
     <mergeCell ref="H28:M28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:M29"/>
+    <mergeCell ref="C2:M19"/>
+    <mergeCell ref="C20:M22"/>
+    <mergeCell ref="C23:M25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2158,154 +2230,154 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:18" ht="54.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="2:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
     </row>
     <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="34">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36">
         <v>1</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="58"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="50"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="61"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="53"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="53"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="53"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="46" t="s">
         <v>1</v>
       </c>
@@ -2314,8 +2386,8 @@
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="27" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="45" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="46"/>
@@ -2323,510 +2395,510 @@
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="46"/>
-      <c r="R9" s="28"/>
+      <c r="R9" s="47"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27" t="s">
+      <c r="F10" s="47"/>
+      <c r="G10" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="27" t="s">
+      <c r="K10" s="47"/>
+      <c r="L10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="27" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="45" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
-      <c r="R10" s="28"/>
+      <c r="R10" s="47"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="46">
         <v>1</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="45" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="27">
+      <c r="K11" s="47"/>
+      <c r="L11" s="45">
         <v>1</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27" t="s">
+      <c r="M11" s="47"/>
+      <c r="N11" s="45" t="s">
         <v>14</v>
       </c>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
-      <c r="R11" s="28"/>
+      <c r="R11" s="47"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="46">
         <v>2</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="47"/>
+      <c r="G12" s="45" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="27">
+      <c r="K12" s="47"/>
+      <c r="L12" s="45">
         <v>2</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="27" t="s">
+      <c r="M12" s="47"/>
+      <c r="N12" s="45" t="s">
         <v>15</v>
       </c>
       <c r="O12" s="46"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
-      <c r="R12" s="28"/>
+      <c r="R12" s="47"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="46">
         <v>3</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="47"/>
+      <c r="G13" s="45" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="27">
+      <c r="K13" s="47"/>
+      <c r="L13" s="45">
         <v>3</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27" t="s">
+      <c r="M13" s="47"/>
+      <c r="N13" s="45" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="46"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
-      <c r="R13" s="28"/>
+      <c r="R13" s="47"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="46">
         <v>4</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="27" t="s">
+      <c r="F14" s="47"/>
+      <c r="G14" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="27">
+      <c r="K14" s="47"/>
+      <c r="L14" s="45">
         <v>4</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="27" t="s">
+      <c r="M14" s="47"/>
+      <c r="N14" s="45" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
-      <c r="R14" s="28"/>
+      <c r="R14" s="47"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="46">
         <v>5</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="45" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="27">
+      <c r="K15" s="47"/>
+      <c r="L15" s="45">
         <v>5</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27" t="s">
+      <c r="M15" s="47"/>
+      <c r="N15" s="45" t="s">
         <v>18</v>
       </c>
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
-      <c r="R15" s="28"/>
+      <c r="R15" s="47"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="35"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="46">
         <v>6</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27" t="s">
+      <c r="F16" s="47"/>
+      <c r="G16" s="45" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="27">
+      <c r="K16" s="47"/>
+      <c r="L16" s="45">
         <v>6</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="27" t="s">
+      <c r="M16" s="47"/>
+      <c r="N16" s="45" t="s">
         <v>19</v>
       </c>
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="46"/>
-      <c r="R16" s="28"/>
+      <c r="R16" s="47"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="46">
         <v>7</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="45" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="27">
+      <c r="K17" s="47"/>
+      <c r="L17" s="45">
         <v>7</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="27" t="s">
+      <c r="M17" s="47"/>
+      <c r="N17" s="45" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="46"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
-      <c r="R17" s="28"/>
+      <c r="R17" s="47"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="46">
         <v>8</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="45" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="27">
+      <c r="K18" s="47"/>
+      <c r="L18" s="45">
         <v>8</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="27" t="s">
+      <c r="M18" s="47"/>
+      <c r="N18" s="45" t="s">
         <v>21</v>
       </c>
       <c r="O18" s="46"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="46"/>
-      <c r="R18" s="28"/>
+      <c r="R18" s="47"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="36"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="46">
         <v>9</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27" t="s">
+      <c r="F19" s="47"/>
+      <c r="G19" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="27">
+      <c r="K19" s="47"/>
+      <c r="L19" s="45">
         <v>9</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="27" t="s">
+      <c r="M19" s="47"/>
+      <c r="N19" s="45" t="s">
         <v>22</v>
       </c>
       <c r="O19" s="46"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="46"/>
-      <c r="R19" s="28"/>
+      <c r="R19" s="47"/>
     </row>
     <row r="20" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="34">
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="36">
         <v>2</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="50"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="61"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="53"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="64"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="34">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="36">
         <v>3</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="45"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="44"/>
     </row>
     <row r="25" spans="2:18" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="3">
         <v>4</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="49"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="2:18" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="49"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="2:18" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="34">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="36">
         <v>6</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="64"/>
     </row>
     <row r="29" spans="2:18" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="45"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="44"/>
     </row>
     <row r="30" spans="2:18" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="3">
         <v>7</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="49"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="29"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
@@ -2887,6 +2959,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="E3:R3"/>
+    <mergeCell ref="D4:D19"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:R29"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="E30:R30"/>
     <mergeCell ref="B3:C30"/>
     <mergeCell ref="D20:D22"/>
@@ -2903,46 +3015,6 @@
     <mergeCell ref="N12:R12"/>
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="N14:R14"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="E3:R3"/>
-    <mergeCell ref="D4:D19"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:R29"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2954,7 +3026,7 @@
   <dimension ref="E2:P204"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:N16"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2963,440 +3035,440 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="5:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="5:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="66" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
     </row>
     <row r="5" spans="5:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
     </row>
     <row r="6" spans="5:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.15">
       <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71" t="s">
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71" t="s">
+      <c r="L7" s="80"/>
+      <c r="M7" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="80"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="68"/>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E9" s="69"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="69">
         <v>9</v>
       </c>
-      <c r="L9" s="80"/>
-      <c r="M9" s="79">
+      <c r="L9" s="70"/>
+      <c r="M9" s="71">
         <v>9</v>
       </c>
-      <c r="N9" s="78"/>
+      <c r="N9" s="72"/>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E10" s="69"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="69">
         <v>9</v>
       </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="79">
+      <c r="L10" s="70"/>
+      <c r="M10" s="71">
         <v>9</v>
       </c>
-      <c r="N10" s="78"/>
+      <c r="N10" s="72"/>
     </row>
     <row r="11" spans="5:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="E11" s="69"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="69">
         <v>2</v>
       </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="79">
+      <c r="L11" s="70"/>
+      <c r="M11" s="71">
         <v>2</v>
       </c>
-      <c r="N11" s="78"/>
+      <c r="N11" s="72"/>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E12" s="69"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="78"/>
+      <c r="F12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="69">
         <v>3</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="79">
+      <c r="L12" s="70"/>
+      <c r="M12" s="71">
         <v>1</v>
       </c>
-      <c r="N12" s="78"/>
+      <c r="N12" s="72"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E13" s="69"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="78"/>
+      <c r="F13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="69">
         <v>5</v>
       </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="79">
+      <c r="L13" s="70"/>
+      <c r="M13" s="71">
         <v>5</v>
       </c>
-      <c r="N13" s="78"/>
+      <c r="N13" s="72"/>
     </row>
     <row r="14" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E14" s="69"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="78"/>
+      <c r="F14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="69">
         <v>4</v>
       </c>
-      <c r="L14" s="80"/>
-      <c r="M14" s="79">
+      <c r="L14" s="70"/>
+      <c r="M14" s="71">
         <v>4</v>
       </c>
-      <c r="N14" s="78"/>
+      <c r="N14" s="72"/>
     </row>
     <row r="15" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E15" s="69"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="78"/>
+      <c r="F15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="77">
+      <c r="K15" s="69">
         <v>4</v>
       </c>
-      <c r="L15" s="80"/>
-      <c r="M15" s="79">
+      <c r="L15" s="70"/>
+      <c r="M15" s="71">
         <v>4</v>
       </c>
-      <c r="N15" s="78"/>
+      <c r="N15" s="72"/>
     </row>
     <row r="16" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E16" s="69"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="77">
+      <c r="K16" s="69">
         <v>2</v>
       </c>
-      <c r="L16" s="80"/>
-      <c r="M16" s="79">
+      <c r="L16" s="70"/>
+      <c r="M16" s="71">
         <v>1</v>
       </c>
-      <c r="N16" s="78"/>
+      <c r="N16" s="72"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E17" s="69"/>
+      <c r="E17" s="78"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E18" s="69"/>
+      <c r="E18" s="78"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E19" s="69"/>
+      <c r="E19" s="78"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E20" s="69"/>
+      <c r="E20" s="78"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E21" s="69"/>
+      <c r="E21" s="78"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E22" s="69"/>
+      <c r="E22" s="78"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E23" s="69"/>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E24" s="69"/>
+      <c r="E24" s="78"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E25" s="69"/>
+      <c r="E25" s="78"/>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E26" s="69"/>
+      <c r="E26" s="78"/>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E27" s="69"/>
+      <c r="E27" s="78"/>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E28" s="69"/>
+      <c r="E28" s="78"/>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E29" s="69"/>
+      <c r="E29" s="78"/>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E30" s="69"/>
+      <c r="E30" s="78"/>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E31" s="69"/>
+      <c r="E31" s="78"/>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E32" s="69"/>
+      <c r="E32" s="78"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E33" s="69"/>
+      <c r="E33" s="78"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E34" s="69"/>
+      <c r="E34" s="78"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E35" s="69"/>
+      <c r="E35" s="78"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E36" s="69"/>
+      <c r="E36" s="78"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E37" s="69"/>
+      <c r="E37" s="78"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E38" s="69"/>
+      <c r="E38" s="78"/>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E39" s="69"/>
+      <c r="E39" s="78"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E40" s="69"/>
+      <c r="E40" s="78"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E41" s="69"/>
+      <c r="E41" s="78"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E42" s="69"/>
+      <c r="E42" s="78"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E43" s="69"/>
+      <c r="E43" s="78"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E44" s="69"/>
+      <c r="E44" s="78"/>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E45" s="69"/>
+      <c r="E45" s="78"/>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E46" s="69"/>
+      <c r="E46" s="78"/>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E47" s="69"/>
+      <c r="E47" s="78"/>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.15">
-      <c r="E48" s="69"/>
+      <c r="E48" s="78"/>
     </row>
     <row r="49" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E49" s="69"/>
+      <c r="E49" s="78"/>
     </row>
     <row r="50" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E50" s="69"/>
+      <c r="E50" s="78"/>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E51" s="69"/>
+      <c r="E51" s="78"/>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E52" s="69"/>
+      <c r="E52" s="78"/>
     </row>
     <row r="53" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E53" s="69"/>
+      <c r="E53" s="78"/>
     </row>
     <row r="54" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E54" s="69"/>
+      <c r="E54" s="78"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -3408,7 +3480,7 @@
       <c r="N54" s="6"/>
     </row>
     <row r="55" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E55" s="69"/>
+      <c r="E55" s="78"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -3420,7 +3492,7 @@
       <c r="N55" s="6"/>
     </row>
     <row r="56" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E56" s="69"/>
+      <c r="E56" s="78"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -3432,7 +3504,7 @@
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E57" s="69"/>
+      <c r="E57" s="78"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -3444,7 +3516,7 @@
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E58" s="69"/>
+      <c r="E58" s="78"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -3457,7 +3529,7 @@
       <c r="O58" s="6"/>
     </row>
     <row r="59" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E59" s="69"/>
+      <c r="E59" s="78"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -3470,7 +3542,7 @@
       <c r="O59" s="6"/>
     </row>
     <row r="60" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E60" s="69"/>
+      <c r="E60" s="78"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -3483,7 +3555,7 @@
       <c r="O60" s="6"/>
     </row>
     <row r="61" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E61" s="69"/>
+      <c r="E61" s="78"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -3496,7 +3568,7 @@
       <c r="O61" s="6"/>
     </row>
     <row r="62" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E62" s="69"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -3509,7 +3581,7 @@
       <c r="O62" s="6"/>
     </row>
     <row r="63" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E63" s="69"/>
+      <c r="E63" s="78"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -3522,7 +3594,7 @@
       <c r="O63" s="6"/>
     </row>
     <row r="64" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E64" s="69"/>
+      <c r="E64" s="78"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -3534,7 +3606,7 @@
       <c r="N64" s="6"/>
     </row>
     <row r="65" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E65" s="69"/>
+      <c r="E65" s="78"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -3546,7 +3618,7 @@
       <c r="N65" s="6"/>
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E66" s="69"/>
+      <c r="E66" s="78"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -3558,7 +3630,7 @@
       <c r="N66" s="6"/>
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E67" s="69"/>
+      <c r="E67" s="78"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -3570,7 +3642,7 @@
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E68" s="69"/>
+      <c r="E68" s="78"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -3582,7 +3654,7 @@
       <c r="N68" s="6"/>
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E69" s="69"/>
+      <c r="E69" s="78"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -3594,7 +3666,7 @@
       <c r="N69" s="6"/>
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E70" s="69"/>
+      <c r="E70" s="78"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -3606,7 +3678,7 @@
       <c r="N70" s="6"/>
     </row>
     <row r="71" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E71" s="69"/>
+      <c r="E71" s="78"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -3618,7 +3690,7 @@
       <c r="N71" s="6"/>
     </row>
     <row r="72" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E72" s="69"/>
+      <c r="E72" s="78"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -3630,7 +3702,7 @@
       <c r="N72" s="6"/>
     </row>
     <row r="73" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E73" s="69"/>
+      <c r="E73" s="78"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -3642,7 +3714,7 @@
       <c r="N73" s="6"/>
     </row>
     <row r="74" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E74" s="69"/>
+      <c r="E74" s="78"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -3654,7 +3726,7 @@
       <c r="N74" s="6"/>
     </row>
     <row r="75" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E75" s="69"/>
+      <c r="E75" s="78"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -3666,325 +3738,325 @@
       <c r="N75" s="6"/>
     </row>
     <row r="76" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E76" s="69"/>
+      <c r="E76" s="78"/>
     </row>
     <row r="77" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E77" s="69"/>
+      <c r="E77" s="78"/>
     </row>
     <row r="78" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E78" s="69"/>
+      <c r="E78" s="78"/>
     </row>
     <row r="79" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E79" s="69"/>
+      <c r="E79" s="78"/>
     </row>
     <row r="80" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E80" s="69"/>
+      <c r="E80" s="78"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E81" s="69"/>
+      <c r="E81" s="78"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E82" s="69"/>
+      <c r="E82" s="78"/>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E83" s="69"/>
+      <c r="E83" s="78"/>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E84" s="69"/>
+      <c r="E84" s="78"/>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E85" s="69"/>
+      <c r="E85" s="78"/>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E86" s="69"/>
+      <c r="E86" s="78"/>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E87" s="69"/>
+      <c r="E87" s="78"/>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E88" s="69"/>
+      <c r="E88" s="78"/>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E89" s="69"/>
+      <c r="E89" s="78"/>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E90" s="69"/>
+      <c r="E90" s="78"/>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E91" s="69"/>
+      <c r="E91" s="78"/>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E92" s="69"/>
+      <c r="E92" s="78"/>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E93" s="69"/>
+      <c r="E93" s="78"/>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E94" s="69"/>
+      <c r="E94" s="78"/>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E95" s="69"/>
+      <c r="E95" s="78"/>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E96" s="69"/>
+      <c r="E96" s="78"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E97" s="69"/>
+      <c r="E97" s="78"/>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E98" s="69"/>
+      <c r="E98" s="78"/>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E99" s="69"/>
+      <c r="E99" s="78"/>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E100" s="69"/>
+      <c r="E100" s="78"/>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E101" s="69"/>
+      <c r="E101" s="78"/>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E102" s="69"/>
+      <c r="E102" s="78"/>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E103" s="69"/>
+      <c r="E103" s="78"/>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E104" s="69"/>
+      <c r="E104" s="78"/>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E105" s="69"/>
+      <c r="E105" s="78"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E106" s="69"/>
+      <c r="E106" s="78"/>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E107" s="69"/>
+      <c r="E107" s="78"/>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E108" s="69"/>
+      <c r="E108" s="78"/>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E109" s="69"/>
+      <c r="E109" s="78"/>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E110" s="69"/>
+      <c r="E110" s="78"/>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E111" s="69"/>
+      <c r="E111" s="78"/>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E112" s="69"/>
+      <c r="E112" s="78"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E113" s="69"/>
+      <c r="E113" s="78"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E114" s="69"/>
+      <c r="E114" s="78"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E115" s="69"/>
+      <c r="E115" s="78"/>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E116" s="69"/>
+      <c r="E116" s="78"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E117" s="69"/>
+      <c r="E117" s="78"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E118" s="69"/>
+      <c r="E118" s="78"/>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E119" s="69"/>
+      <c r="E119" s="78"/>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E120" s="69"/>
+      <c r="E120" s="78"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E121" s="69"/>
+      <c r="E121" s="78"/>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E122" s="69"/>
+      <c r="E122" s="78"/>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E123" s="69"/>
+      <c r="E123" s="78"/>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E124" s="69"/>
+      <c r="E124" s="78"/>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E125" s="69"/>
+      <c r="E125" s="78"/>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E126" s="69"/>
+      <c r="E126" s="78"/>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E127" s="69"/>
+      <c r="E127" s="78"/>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E128" s="69"/>
+      <c r="E128" s="78"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E129" s="69"/>
+      <c r="E129" s="78"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E130" s="69"/>
+      <c r="E130" s="78"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E131" s="69"/>
+      <c r="E131" s="78"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E132" s="69"/>
+      <c r="E132" s="78"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E133" s="69"/>
+      <c r="E133" s="78"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E134" s="69"/>
+      <c r="E134" s="78"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E135" s="69"/>
+      <c r="E135" s="78"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E136" s="69"/>
+      <c r="E136" s="78"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E137" s="69"/>
+      <c r="E137" s="78"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E138" s="69"/>
+      <c r="E138" s="78"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E139" s="69"/>
+      <c r="E139" s="78"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E140" s="69"/>
+      <c r="E140" s="78"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E141" s="69"/>
+      <c r="E141" s="78"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E142" s="69"/>
+      <c r="E142" s="78"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E143" s="69"/>
+      <c r="E143" s="78"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E144" s="69"/>
+      <c r="E144" s="78"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E145" s="69"/>
+      <c r="E145" s="78"/>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E146" s="69"/>
+      <c r="E146" s="78"/>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E147" s="69"/>
+      <c r="E147" s="78"/>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E148" s="69"/>
+      <c r="E148" s="78"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E149" s="69"/>
+      <c r="E149" s="78"/>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E150" s="69"/>
+      <c r="E150" s="78"/>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E151" s="69"/>
+      <c r="E151" s="78"/>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E152" s="69"/>
+      <c r="E152" s="78"/>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E153" s="69"/>
+      <c r="E153" s="78"/>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E154" s="69"/>
+      <c r="E154" s="78"/>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E155" s="69"/>
+      <c r="E155" s="78"/>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E156" s="69"/>
+      <c r="E156" s="78"/>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E157" s="69"/>
+      <c r="E157" s="78"/>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E158" s="69"/>
+      <c r="E158" s="78"/>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E159" s="69"/>
+      <c r="E159" s="78"/>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E160" s="69"/>
+      <c r="E160" s="78"/>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E161" s="69"/>
+      <c r="E161" s="78"/>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E162" s="69"/>
+      <c r="E162" s="78"/>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E163" s="69"/>
+      <c r="E163" s="78"/>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E164" s="69"/>
+      <c r="E164" s="78"/>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E165" s="69"/>
+      <c r="E165" s="78"/>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E166" s="69"/>
+      <c r="E166" s="78"/>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E167" s="69"/>
+      <c r="E167" s="78"/>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E168" s="69"/>
+      <c r="E168" s="78"/>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E169" s="69"/>
+      <c r="E169" s="78"/>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E170" s="69"/>
+      <c r="E170" s="78"/>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E171" s="69"/>
+      <c r="E171" s="78"/>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E172" s="69"/>
+      <c r="E172" s="78"/>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E173" s="69"/>
+      <c r="E173" s="78"/>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E174" s="69"/>
+      <c r="E174" s="78"/>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E175" s="69"/>
+      <c r="E175" s="78"/>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E176" s="69"/>
+      <c r="E176" s="78"/>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E177" s="69"/>
+      <c r="E177" s="78"/>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E178" s="69"/>
+      <c r="E178" s="78"/>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E179" s="69"/>
+      <c r="E179" s="78"/>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E180" s="69"/>
+      <c r="E180" s="78"/>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E181" s="69"/>
+      <c r="E181" s="78"/>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E182" s="70"/>
+      <c r="E182" s="79"/>
     </row>
     <row r="183" spans="5:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E183" s="7"/>
@@ -4054,20 +4126,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="E2:N3"/>
     <mergeCell ref="G4:N4"/>
     <mergeCell ref="G5:N5"/>
@@ -4084,12 +4148,20 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4101,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:P232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4114,542 +4186,542 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="6:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
     </row>
     <row r="4" spans="6:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="66" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="6:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
     </row>
     <row r="6" spans="6:15" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" spans="6:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71" t="s">
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71" t="s">
+      <c r="M7" s="80"/>
+      <c r="N7" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="6:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="75"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
     </row>
     <row r="9" spans="6:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F9" s="69"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="25">
         <v>9</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15">
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>9</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="6:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F10" s="69"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="78"/>
+      <c r="G10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="25">
         <v>9</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25">
         <v>9</v>
       </c>
-      <c r="O10" s="15"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="69"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="78"/>
+      <c r="G11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="25">
         <v>2</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15">
+      <c r="M11" s="25"/>
+      <c r="N11" s="25">
         <v>2</v>
       </c>
-      <c r="O11" s="15"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="69"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="78"/>
+      <c r="G12" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="25">
         <v>2</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25">
         <v>2</v>
       </c>
-      <c r="O12" s="15"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="6:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="69"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="78"/>
+      <c r="G13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="25">
         <v>3</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15">
+      <c r="M13" s="25"/>
+      <c r="N13" s="25">
         <v>1</v>
       </c>
-      <c r="O13" s="15"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="6:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F14" s="69"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="78"/>
+      <c r="G14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="25">
         <v>5</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25">
         <v>5</v>
       </c>
-      <c r="O14" s="15"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="69"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="78"/>
+      <c r="G15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="25">
         <v>4</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15">
+      <c r="M15" s="25"/>
+      <c r="N15" s="25">
         <v>4</v>
       </c>
-      <c r="O15" s="15"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="6:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="69"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="78"/>
+      <c r="G16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="25">
         <v>6</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15">
+      <c r="M16" s="25"/>
+      <c r="N16" s="25">
         <v>6</v>
       </c>
-      <c r="O16" s="15"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F17" s="69"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="78"/>
+      <c r="G17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="25">
         <v>3</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15">
+      <c r="M17" s="25"/>
+      <c r="N17" s="25">
         <v>3</v>
       </c>
-      <c r="O17" s="15"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="69"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="78"/>
+      <c r="G18" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="25">
         <v>4</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15">
+      <c r="M18" s="25"/>
+      <c r="N18" s="25">
         <v>4</v>
       </c>
-      <c r="O18" s="15"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="6:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="69"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="25">
         <v>2</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15">
+      <c r="M19" s="25"/>
+      <c r="N19" s="25">
         <v>1</v>
       </c>
-      <c r="O19" s="15"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="6:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="69"/>
+      <c r="F20" s="78"/>
     </row>
     <row r="21" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="69"/>
+      <c r="F21" s="78"/>
     </row>
     <row r="22" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="69"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="6:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="69"/>
+      <c r="F23" s="78"/>
     </row>
     <row r="24" spans="6:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="69"/>
+      <c r="F24" s="78"/>
     </row>
     <row r="25" spans="6:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="69"/>
+      <c r="F25" s="78"/>
     </row>
     <row r="26" spans="6:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F26" s="69"/>
+      <c r="F26" s="78"/>
     </row>
     <row r="27" spans="6:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F27" s="69"/>
+      <c r="F27" s="78"/>
     </row>
     <row r="28" spans="6:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="69"/>
+      <c r="F28" s="78"/>
     </row>
     <row r="29" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F29" s="69"/>
+      <c r="F29" s="78"/>
     </row>
     <row r="30" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F30" s="69"/>
+      <c r="F30" s="78"/>
     </row>
     <row r="31" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F31" s="69"/>
+      <c r="F31" s="78"/>
     </row>
     <row r="32" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F32" s="69"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F33" s="69"/>
+      <c r="F33" s="78"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F34" s="69"/>
+      <c r="F34" s="78"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F35" s="69"/>
+      <c r="F35" s="78"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F36" s="69"/>
+      <c r="F36" s="78"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F37" s="69"/>
+      <c r="F37" s="78"/>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F38" s="69"/>
+      <c r="F38" s="78"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F39" s="69"/>
+      <c r="F39" s="78"/>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F40" s="69"/>
+      <c r="F40" s="78"/>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F41" s="69"/>
+      <c r="F41" s="78"/>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F42" s="69"/>
+      <c r="F42" s="78"/>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F43" s="69"/>
+      <c r="F43" s="78"/>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F44" s="69"/>
+      <c r="F44" s="78"/>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F45" s="69"/>
+      <c r="F45" s="78"/>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F46" s="69"/>
+      <c r="F46" s="78"/>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F47" s="69"/>
+      <c r="F47" s="78"/>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F48" s="69"/>
+      <c r="F48" s="78"/>
     </row>
     <row r="49" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F49" s="69"/>
+      <c r="F49" s="78"/>
     </row>
     <row r="50" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F50" s="69"/>
+      <c r="F50" s="78"/>
     </row>
     <row r="51" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F51" s="69"/>
+      <c r="F51" s="78"/>
     </row>
     <row r="52" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F52" s="69"/>
+      <c r="F52" s="78"/>
     </row>
     <row r="53" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F53" s="69"/>
+      <c r="F53" s="78"/>
       <c r="L53" s="6"/>
     </row>
     <row r="54" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F54" s="69"/>
+      <c r="F54" s="78"/>
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F55" s="69"/>
+      <c r="F55" s="78"/>
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F56" s="69"/>
+      <c r="F56" s="78"/>
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F57" s="69"/>
+      <c r="F57" s="78"/>
     </row>
     <row r="58" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F58" s="69"/>
+      <c r="F58" s="78"/>
     </row>
     <row r="59" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F59" s="69"/>
+      <c r="F59" s="78"/>
     </row>
     <row r="60" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F60" s="69"/>
+      <c r="F60" s="78"/>
     </row>
     <row r="61" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F61" s="69"/>
+      <c r="F61" s="78"/>
     </row>
     <row r="62" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F62" s="69"/>
+      <c r="F62" s="78"/>
     </row>
     <row r="63" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F63" s="69"/>
+      <c r="F63" s="78"/>
     </row>
     <row r="64" spans="6:12" x14ac:dyDescent="0.15">
-      <c r="F64" s="69"/>
+      <c r="F64" s="78"/>
     </row>
     <row r="65" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F65" s="69"/>
+      <c r="F65" s="78"/>
     </row>
     <row r="66" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F66" s="69"/>
+      <c r="F66" s="78"/>
     </row>
     <row r="67" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F67" s="69"/>
+      <c r="F67" s="78"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4661,7 +4733,7 @@
       <c r="O67" s="6"/>
     </row>
     <row r="68" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F68" s="69"/>
+      <c r="F68" s="78"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -4673,7 +4745,7 @@
       <c r="O68" s="6"/>
     </row>
     <row r="69" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F69" s="69"/>
+      <c r="F69" s="78"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -4685,7 +4757,7 @@
       <c r="O69" s="6"/>
     </row>
     <row r="70" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F70" s="69"/>
+      <c r="F70" s="78"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -4697,7 +4769,7 @@
       <c r="O70" s="6"/>
     </row>
     <row r="71" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F71" s="69"/>
+      <c r="F71" s="78"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -4709,7 +4781,7 @@
       <c r="O71" s="6"/>
     </row>
     <row r="72" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F72" s="69"/>
+      <c r="F72" s="78"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -4721,7 +4793,7 @@
       <c r="O72" s="6"/>
     </row>
     <row r="73" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F73" s="69"/>
+      <c r="F73" s="78"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -4733,7 +4805,7 @@
       <c r="O73" s="6"/>
     </row>
     <row r="74" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F74" s="69"/>
+      <c r="F74" s="78"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -4745,7 +4817,7 @@
       <c r="O74" s="6"/>
     </row>
     <row r="75" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F75" s="69"/>
+      <c r="F75" s="78"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -4757,7 +4829,7 @@
       <c r="O75" s="6"/>
     </row>
     <row r="76" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F76" s="69"/>
+      <c r="F76" s="78"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -4769,7 +4841,7 @@
       <c r="O76" s="6"/>
     </row>
     <row r="77" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F77" s="69"/>
+      <c r="F77" s="78"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -4781,7 +4853,7 @@
       <c r="O77" s="6"/>
     </row>
     <row r="78" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F78" s="69"/>
+      <c r="F78" s="78"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -4793,7 +4865,7 @@
       <c r="O78" s="6"/>
     </row>
     <row r="79" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F79" s="69"/>
+      <c r="F79" s="78"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
@@ -4805,7 +4877,7 @@
       <c r="O79" s="6"/>
     </row>
     <row r="80" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F80" s="69"/>
+      <c r="F80" s="78"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -4817,7 +4889,7 @@
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F81" s="69"/>
+      <c r="F81" s="78"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -4829,7 +4901,7 @@
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F82" s="69"/>
+      <c r="F82" s="78"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -4841,7 +4913,7 @@
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F83" s="69"/>
+      <c r="F83" s="78"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -4853,7 +4925,7 @@
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F84" s="69"/>
+      <c r="F84" s="78"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -4865,7 +4937,7 @@
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F85" s="69"/>
+      <c r="F85" s="78"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
@@ -4877,7 +4949,7 @@
       <c r="O85" s="6"/>
     </row>
     <row r="86" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F86" s="69"/>
+      <c r="F86" s="78"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
@@ -4889,7 +4961,7 @@
       <c r="O86" s="6"/>
     </row>
     <row r="87" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F87" s="69"/>
+      <c r="F87" s="78"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
@@ -4901,7 +4973,7 @@
       <c r="O87" s="6"/>
     </row>
     <row r="88" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F88" s="69"/>
+      <c r="F88" s="78"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
@@ -4913,366 +4985,366 @@
       <c r="O88" s="6"/>
     </row>
     <row r="89" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F89" s="69"/>
+      <c r="F89" s="78"/>
     </row>
     <row r="90" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F90" s="69"/>
+      <c r="F90" s="78"/>
     </row>
     <row r="91" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F91" s="69"/>
+      <c r="F91" s="78"/>
     </row>
     <row r="92" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F92" s="69"/>
+      <c r="F92" s="78"/>
     </row>
     <row r="93" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F93" s="69"/>
+      <c r="F93" s="78"/>
     </row>
     <row r="94" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F94" s="69"/>
+      <c r="F94" s="78"/>
     </row>
     <row r="95" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F95" s="69"/>
+      <c r="F95" s="78"/>
     </row>
     <row r="96" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F96" s="69"/>
+      <c r="F96" s="78"/>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F97" s="69"/>
+      <c r="F97" s="78"/>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F98" s="69"/>
+      <c r="F98" s="78"/>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F99" s="69"/>
+      <c r="F99" s="78"/>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F100" s="69"/>
+      <c r="F100" s="78"/>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F101" s="69"/>
+      <c r="F101" s="78"/>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F102" s="69"/>
+      <c r="F102" s="78"/>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E103" s="8"/>
-      <c r="F103" s="69"/>
+      <c r="F103" s="78"/>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E104" s="8"/>
-      <c r="F104" s="69"/>
+      <c r="F104" s="78"/>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E105" s="8"/>
-      <c r="F105" s="69"/>
+      <c r="F105" s="78"/>
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E106" s="8"/>
-      <c r="F106" s="69"/>
+      <c r="F106" s="78"/>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E107" s="8"/>
-      <c r="F107" s="69"/>
+      <c r="F107" s="78"/>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E108" s="6"/>
-      <c r="F108" s="69"/>
+      <c r="F108" s="78"/>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E109" s="6"/>
-      <c r="F109" s="69"/>
+      <c r="F109" s="78"/>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E110" s="6"/>
-      <c r="F110" s="69"/>
+      <c r="F110" s="78"/>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E111" s="6"/>
-      <c r="F111" s="69"/>
+      <c r="F111" s="78"/>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E112" s="6"/>
-      <c r="F112" s="69"/>
+      <c r="F112" s="78"/>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E113" s="8"/>
-      <c r="F113" s="69"/>
+      <c r="F113" s="78"/>
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E114" s="8"/>
-      <c r="F114" s="69"/>
+      <c r="F114" s="78"/>
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E115" s="6"/>
-      <c r="F115" s="69"/>
+      <c r="F115" s="78"/>
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E116" s="6"/>
-      <c r="F116" s="69"/>
+      <c r="F116" s="78"/>
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E117" s="8"/>
-      <c r="F117" s="69"/>
+      <c r="F117" s="78"/>
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E118" s="8"/>
-      <c r="F118" s="69"/>
+      <c r="F118" s="78"/>
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E119" s="8"/>
-      <c r="F119" s="69"/>
+      <c r="F119" s="78"/>
     </row>
     <row r="120" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E120" s="8"/>
-      <c r="F120" s="69"/>
+      <c r="F120" s="78"/>
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E121" s="8"/>
-      <c r="F121" s="69"/>
+      <c r="F121" s="78"/>
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E122" s="8"/>
-      <c r="F122" s="69"/>
+      <c r="F122" s="78"/>
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E123" s="8"/>
-      <c r="F123" s="69"/>
+      <c r="F123" s="78"/>
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E124" s="8"/>
-      <c r="F124" s="69"/>
+      <c r="F124" s="78"/>
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E125" s="6"/>
-      <c r="F125" s="69"/>
+      <c r="F125" s="78"/>
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E126" s="6"/>
-      <c r="F126" s="69"/>
+      <c r="F126" s="78"/>
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E127" s="6"/>
-      <c r="F127" s="69"/>
+      <c r="F127" s="78"/>
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E128" s="6"/>
-      <c r="F128" s="69"/>
+      <c r="F128" s="78"/>
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E129" s="6"/>
-      <c r="F129" s="69"/>
+      <c r="F129" s="78"/>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E130" s="6"/>
-      <c r="F130" s="69"/>
+      <c r="F130" s="78"/>
     </row>
     <row r="131" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E131" s="6"/>
-      <c r="F131" s="69"/>
+      <c r="F131" s="78"/>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E132" s="6"/>
-      <c r="F132" s="69"/>
+      <c r="F132" s="78"/>
     </row>
     <row r="133" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E133" s="6"/>
-      <c r="F133" s="69"/>
+      <c r="F133" s="78"/>
     </row>
     <row r="134" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E134" s="8"/>
-      <c r="F134" s="69"/>
+      <c r="F134" s="78"/>
     </row>
     <row r="135" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E135" s="8"/>
-      <c r="F135" s="69"/>
+      <c r="F135" s="78"/>
     </row>
     <row r="136" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E136" s="8"/>
-      <c r="F136" s="69"/>
+      <c r="F136" s="78"/>
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E137" s="8"/>
-      <c r="F137" s="69"/>
+      <c r="F137" s="78"/>
     </row>
     <row r="138" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E138" s="8"/>
-      <c r="F138" s="69"/>
+      <c r="F138" s="78"/>
     </row>
     <row r="139" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E139" s="8"/>
-      <c r="F139" s="69"/>
+      <c r="F139" s="78"/>
     </row>
     <row r="140" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E140" s="8"/>
-      <c r="F140" s="69"/>
+      <c r="F140" s="78"/>
     </row>
     <row r="141" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E141" s="8"/>
-      <c r="F141" s="69"/>
+      <c r="F141" s="78"/>
     </row>
     <row r="142" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E142" s="8"/>
-      <c r="F142" s="69"/>
+      <c r="F142" s="78"/>
     </row>
     <row r="143" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E143" s="8"/>
-      <c r="F143" s="69"/>
+      <c r="F143" s="78"/>
     </row>
     <row r="144" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E144" s="8"/>
-      <c r="F144" s="69"/>
+      <c r="F144" s="78"/>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E145" s="8"/>
-      <c r="F145" s="69"/>
+      <c r="F145" s="78"/>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E146" s="8"/>
-      <c r="F146" s="69"/>
+      <c r="F146" s="78"/>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E147" s="8"/>
-      <c r="F147" s="69"/>
+      <c r="F147" s="78"/>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E148" s="8"/>
-      <c r="F148" s="69"/>
+      <c r="F148" s="78"/>
     </row>
     <row r="149" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E149" s="8"/>
-      <c r="F149" s="69"/>
+      <c r="F149" s="78"/>
     </row>
     <row r="150" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E150" s="6"/>
-      <c r="F150" s="69"/>
+      <c r="F150" s="78"/>
     </row>
     <row r="151" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E151" s="6"/>
-      <c r="F151" s="69"/>
+      <c r="F151" s="78"/>
     </row>
     <row r="152" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E152" s="6"/>
-      <c r="F152" s="69"/>
+      <c r="F152" s="78"/>
     </row>
     <row r="153" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E153" s="6"/>
-      <c r="F153" s="69"/>
+      <c r="F153" s="78"/>
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E154" s="6"/>
-      <c r="F154" s="69"/>
+      <c r="F154" s="78"/>
     </row>
     <row r="155" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E155" s="8"/>
-      <c r="F155" s="69"/>
+      <c r="F155" s="78"/>
     </row>
     <row r="156" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E156" s="6"/>
-      <c r="F156" s="69"/>
+      <c r="F156" s="78"/>
     </row>
     <row r="157" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E157" s="6"/>
-      <c r="F157" s="69"/>
+      <c r="F157" s="78"/>
     </row>
     <row r="158" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E158" s="6"/>
-      <c r="F158" s="69"/>
+      <c r="F158" s="78"/>
     </row>
     <row r="159" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E159" s="6"/>
-      <c r="F159" s="69"/>
+      <c r="F159" s="78"/>
     </row>
     <row r="160" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E160" s="6"/>
-      <c r="F160" s="69"/>
+      <c r="F160" s="78"/>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E161" s="6"/>
-      <c r="F161" s="69"/>
+      <c r="F161" s="78"/>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E162" s="6"/>
-      <c r="F162" s="69"/>
+      <c r="F162" s="78"/>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E163" s="6"/>
-      <c r="F163" s="69"/>
+      <c r="F163" s="78"/>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E164" s="6"/>
-      <c r="F164" s="69"/>
+      <c r="F164" s="78"/>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E165" s="6"/>
-      <c r="F165" s="69"/>
+      <c r="F165" s="78"/>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E166" s="6"/>
-      <c r="F166" s="69"/>
+      <c r="F166" s="78"/>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E167" s="6"/>
-      <c r="F167" s="69"/>
+      <c r="F167" s="78"/>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E168" s="6"/>
-      <c r="F168" s="69"/>
+      <c r="F168" s="78"/>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E169" s="6"/>
-      <c r="F169" s="69"/>
+      <c r="F169" s="78"/>
     </row>
     <row r="170" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E170" s="6"/>
-      <c r="F170" s="69"/>
+      <c r="F170" s="78"/>
     </row>
     <row r="171" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E171" s="6"/>
-      <c r="F171" s="69"/>
+      <c r="F171" s="78"/>
     </row>
     <row r="172" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E172" s="6"/>
-      <c r="F172" s="69"/>
+      <c r="F172" s="78"/>
     </row>
     <row r="173" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E173" s="6"/>
-      <c r="F173" s="69"/>
+      <c r="F173" s="78"/>
     </row>
     <row r="174" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E174" s="6"/>
-      <c r="F174" s="69"/>
+      <c r="F174" s="78"/>
     </row>
     <row r="175" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E175" s="6"/>
-      <c r="F175" s="69"/>
+      <c r="F175" s="78"/>
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E176" s="6"/>
-      <c r="F176" s="69"/>
+      <c r="F176" s="78"/>
     </row>
     <row r="177" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E177" s="6"/>
-      <c r="F177" s="69"/>
+      <c r="F177" s="78"/>
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E178" s="6"/>
-      <c r="F178" s="69"/>
+      <c r="F178" s="78"/>
     </row>
     <row r="179" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E179" s="6"/>
-      <c r="F179" s="69"/>
+      <c r="F179" s="78"/>
     </row>
     <row r="180" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E180" s="6"/>
-      <c r="F180" s="69"/>
+      <c r="F180" s="78"/>
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E181" s="6"/>
-      <c r="F181" s="69"/>
+      <c r="F181" s="78"/>
     </row>
     <row r="182" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E182" s="6"/>
-      <c r="F182" s="70"/>
+      <c r="F182" s="79"/>
     </row>
     <row r="183" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E183" s="6"/>
@@ -5577,6 +5649,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="F2:O3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="F8:F182"/>
     <mergeCell ref="G8:O8"/>
     <mergeCell ref="G9:K9"/>
@@ -5593,38 +5694,627 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="F2:O3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>41</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="M7">
+        <v>1.1353014431177202</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>0.1951219512195122</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="M8">
+        <v>0.63946195741871592</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.2069214131218457</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C6:M14">
+    <sortState ref="C7:M14">
+      <sortCondition descending="1" ref="M6:M14"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="I4">
+        <v>55</v>
+      </c>
+      <c r="K4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>0.18947368421052632</v>
+      </c>
+      <c r="M6">
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>0.18947368421052632</v>
+      </c>
+      <c r="M7">
+        <v>0.74436090225563922</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>0.12631578947368421</v>
+      </c>
+      <c r="M8">
+        <v>0.69473684210526321</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M10">
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3.1578947368421054E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.3473684210526316</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.25730994152046782</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.25730994152046782</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C5:M16">
+    <sortState ref="C6:M16">
+      <sortCondition descending="1" ref="M5:M16"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>